--- a/FHM-2020-04-26.xlsx
+++ b/FHM-2020-04-26.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b206b09b6342c3fc/Documents/GitHub/Sweden-Folkhalsomyndigheten-Corona-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FFB5E47887EBA4F90FE259C34183078CBC5AE841" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF4825AA-D390-4677-B792-C88C12D8FC5A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="35595" yWindow="-16410" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -183,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -507,17 +508,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43865</v>
       </c>
@@ -659,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43866</v>
       </c>
@@ -730,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43867</v>
       </c>
@@ -801,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43868</v>
       </c>
@@ -872,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43869</v>
       </c>
@@ -943,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43870</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43871</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43872</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43873</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43874</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43875</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43876</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43877</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43878</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43879</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43880</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43881</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43882</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43883</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43884</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43885</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43886</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43887</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43888</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43889</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43890</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43891</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43892</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43893</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43894</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43895</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43896</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43897</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43898</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43899</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43900</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43901</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>43902</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>43903</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43904</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43905</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43906</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43907</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43908</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43909</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43910</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43911</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43912</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43913</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43914</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43915</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43916</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43917</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43918</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43919</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43920</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43921</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43922</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43923</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43924</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43925</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43926</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43927</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43928</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43929</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43930</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43931</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43932</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43933</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43934</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43935</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43936</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>43937</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>43938</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43939</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43940</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>43941</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43942</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>43943</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>43944</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>43945</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>43946</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>43947</v>
       </c>
@@ -6487,19 +6488,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43901</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43902</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43903</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43904</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43905</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43906</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43907</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43908</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43909</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43910</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43911</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43912</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43913</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43914</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43915</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43916</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43917</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43918</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43919</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43920</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43921</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43922</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43923</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43924</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43925</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43926</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43927</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43928</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43929</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43930</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43931</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43932</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43933</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43934</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43935</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43936</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43937</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>43938</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>43939</v>
       </c>
@@ -6819,7 +6820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43940</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43941</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43942</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43943</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43944</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43945</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43946</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -6889,14 +6890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43912</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43913</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43914</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43915</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43916</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43917</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43918</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43919</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43920</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43921</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43922</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43923</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43924</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43925</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43926</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43927</v>
       </c>
@@ -7160,7 +7161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43928</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43929</v>
       </c>
@@ -7176,7 +7177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43930</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43931</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43932</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>43933</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>43934</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43935</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43936</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43937</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43938</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43939</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43940</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43941</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43942</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43943</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43944</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43945</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43946</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43947</v>
       </c>
@@ -7326,14 +7327,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="21.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -7350,7 +7354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7367,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7418,7 +7422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -7452,7 +7456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7486,7 +7490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -7537,7 +7541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7588,7 +7592,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7622,7 +7626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7639,7 +7643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7656,7 +7660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -7673,7 +7677,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7713,14 +7717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -7762,7 +7766,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -7782,14 +7786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -7817,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -7831,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -7859,7 +7863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7873,7 +7877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -7887,7 +7891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7963,19 +7967,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>49</v>
       </c>
